--- a/lib/_DOCS/Nora/base_opapp-Übersicht.xlsx
+++ b/lib/_DOCS/Nora/base_opapp-Übersicht.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Schoenenbergern\Documents\GitHub\apps\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26221"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28460" windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -480,7 +478,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,6 +488,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -506,13 +510,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Gut" xfId="1" builtinId="26"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -570,7 +575,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -605,7 +610,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -782,7 +787,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -792,16 +797,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="10" width="35.7109375" customWidth="1"/>
+    <col min="1" max="5" width="35.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="2" customWidth="1"/>
+    <col min="7" max="10" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -817,7 +824,7 @@
       <c r="E1" t="s">
         <v>126</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -833,12 +840,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -854,7 +861,7 @@
       <c r="E3" t="s">
         <v>83</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G3" t="s">
@@ -870,7 +877,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -886,7 +893,7 @@
       <c r="E4" t="s">
         <v>84</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G4" t="s">
@@ -896,7 +903,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -912,7 +919,7 @@
       <c r="E5" t="s">
         <v>85</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G5" t="s">
@@ -922,7 +929,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -938,7 +945,7 @@
       <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G6" t="s">
@@ -948,7 +955,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -964,7 +971,7 @@
       <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G7" t="s">
@@ -974,12 +981,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -995,7 +1002,7 @@
       <c r="E11" t="s">
         <v>73</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>143</v>
       </c>
       <c r="G11" t="s">
@@ -1005,12 +1012,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1026,7 +1033,7 @@
       <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G15" t="s">
@@ -1036,7 +1043,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1052,7 +1059,7 @@
       <c r="E16" t="s">
         <v>35</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G16" t="s">
@@ -1062,7 +1069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1078,7 +1085,7 @@
       <c r="E17" t="s">
         <v>36</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G17" t="s">
@@ -1088,7 +1095,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1104,7 +1111,7 @@
       <c r="E18" t="s">
         <v>37</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G18" t="s">
@@ -1114,7 +1121,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1130,7 +1137,7 @@
       <c r="E19" t="s">
         <v>38</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G19" t="s">
@@ -1140,7 +1147,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1156,7 +1163,7 @@
       <c r="E20" t="s">
         <v>39</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G20" t="s">
@@ -1166,7 +1173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1182,7 +1189,7 @@
       <c r="E21" t="s">
         <v>40</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G21" t="s">
@@ -1192,22 +1199,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="C24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1223,7 +1230,7 @@
       <c r="E28" t="s">
         <v>74</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G28" t="s">
@@ -1233,7 +1240,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1249,7 +1256,7 @@
       <c r="E29" t="s">
         <v>2</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G29" t="s">
@@ -1259,7 +1266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1275,7 +1282,7 @@
       <c r="E30" t="s">
         <v>3</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G30" t="s">
@@ -1285,7 +1292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1301,7 +1308,7 @@
       <c r="E31" t="s">
         <v>75</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G31" t="s">
@@ -1311,7 +1318,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1327,7 +1334,7 @@
       <c r="E32" t="s">
         <v>5</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G32" t="s">
@@ -1337,7 +1344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -1353,7 +1360,7 @@
       <c r="E33" t="s">
         <v>76</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G33" t="s">
@@ -1363,7 +1370,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1379,7 +1386,7 @@
       <c r="E34" t="s">
         <v>77</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G34" t="s">
@@ -1389,7 +1396,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1405,7 +1412,7 @@
       <c r="E35" t="s">
         <v>78</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G35" t="s">
@@ -1415,7 +1422,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -1431,7 +1438,7 @@
       <c r="E36" t="s">
         <v>79</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G36" t="s">
@@ -1441,7 +1448,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1457,7 +1464,7 @@
       <c r="E37" t="s">
         <v>10</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" t="s">
@@ -1467,7 +1474,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1483,7 +1490,7 @@
       <c r="E38" t="s">
         <v>11</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G38" t="s">
@@ -1493,17 +1500,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="H39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1519,7 +1526,7 @@
       <c r="E42" t="s">
         <v>80</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G42" t="s">
@@ -1529,7 +1536,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -1545,7 +1552,7 @@
       <c r="E43" t="s">
         <v>81</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G43" t="s">
@@ -1555,7 +1562,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -1571,7 +1578,7 @@
       <c r="E44" t="s">
         <v>57</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G44" t="s">
@@ -1581,7 +1588,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1597,7 +1604,7 @@
       <c r="E45" t="s">
         <v>47</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G45" t="s">
@@ -1607,7 +1614,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -1623,7 +1630,7 @@
       <c r="E46" t="s">
         <v>82</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="2" t="s">
         <v>144</v>
       </c>
       <c r="G46" t="s">
@@ -1633,7 +1640,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -1646,51 +1653,56 @@
       <c r="E47" t="s">
         <v>70</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="C50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="C51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="C52" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="C53" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="C54" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="C55" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="C56" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>